--- a/natmiOut/OldD7/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/H2-K1-Aplp2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H2">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I2">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J2">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.077702419824</v>
+        <v>153.400004</v>
       </c>
       <c r="N2">
-        <v>153.077702419824</v>
+        <v>460.200012</v>
       </c>
       <c r="O2">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="P2">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="Q2">
-        <v>25431.19186713257</v>
+        <v>26628.51146728825</v>
       </c>
       <c r="R2">
-        <v>25431.19186713257</v>
+        <v>239656.6032055942</v>
       </c>
       <c r="S2">
-        <v>0.1464048716985015</v>
+        <v>0.1360594258775826</v>
       </c>
       <c r="T2">
-        <v>0.1464048716985015</v>
+        <v>0.1360594258775826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H3">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I3">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J3">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.541654835085</v>
+        <v>42.544782</v>
       </c>
       <c r="N3">
-        <v>42.541654835085</v>
+        <v>127.634346</v>
       </c>
       <c r="O3">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="P3">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="Q3">
-        <v>7067.554381560061</v>
+        <v>7385.294562054109</v>
       </c>
       <c r="R3">
-        <v>7067.554381560061</v>
+        <v>66467.65105848698</v>
       </c>
       <c r="S3">
-        <v>0.04068721583559627</v>
+        <v>0.03773545281659127</v>
       </c>
       <c r="T3">
-        <v>0.04068721583559627</v>
+        <v>0.03773545281659125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H4">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I4">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J4">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.6648276750471</v>
+        <v>67.227361</v>
       </c>
       <c r="N4">
-        <v>62.6648276750471</v>
+        <v>201.682083</v>
       </c>
       <c r="O4">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="P4">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="Q4">
-        <v>10410.66876973547</v>
+        <v>11669.91203796857</v>
       </c>
       <c r="R4">
-        <v>10410.66876973547</v>
+        <v>105029.2083417171</v>
       </c>
       <c r="S4">
-        <v>0.05993319674091126</v>
+        <v>0.05962787420087022</v>
       </c>
       <c r="T4">
-        <v>0.05993319674091126</v>
+        <v>0.05962787420087021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>166.132568395795</v>
+        <v>173.5887273333334</v>
       </c>
       <c r="H5">
-        <v>166.132568395795</v>
+        <v>520.7661820000001</v>
       </c>
       <c r="I5">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="J5">
-        <v>0.2725967348036071</v>
+        <v>0.2624583749605043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.736944263174</v>
+        <v>32.73617033333333</v>
       </c>
       <c r="N5">
-        <v>26.736944263174</v>
+        <v>98.208511</v>
       </c>
       <c r="O5">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="P5">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="Q5">
-        <v>4441.877221496314</v>
+        <v>5682.630145930557</v>
       </c>
       <c r="R5">
-        <v>4441.877221496314</v>
+        <v>51143.67131337501</v>
       </c>
       <c r="S5">
-        <v>0.025571450528598</v>
+        <v>0.02903562206546022</v>
       </c>
       <c r="T5">
-        <v>0.025571450528598</v>
+        <v>0.02903562206546021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H6">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I6">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J6">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.077702419824</v>
+        <v>153.400004</v>
       </c>
       <c r="N6">
-        <v>153.077702419824</v>
+        <v>460.200012</v>
       </c>
       <c r="O6">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="P6">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="Q6">
-        <v>21587.53750858797</v>
+        <v>21637.5766308132</v>
       </c>
       <c r="R6">
-        <v>21587.53750858797</v>
+        <v>194738.1896773188</v>
       </c>
       <c r="S6">
-        <v>0.1242773313867404</v>
+        <v>0.1105580481803194</v>
       </c>
       <c r="T6">
-        <v>0.1242773313867404</v>
+        <v>0.1105580481803194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H7">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I7">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J7">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.541654835085</v>
+        <v>42.544782</v>
       </c>
       <c r="N7">
-        <v>42.541654835085</v>
+        <v>127.634346</v>
       </c>
       <c r="O7">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="P7">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="Q7">
-        <v>5999.368653385724</v>
+        <v>6001.081856335818</v>
       </c>
       <c r="R7">
-        <v>5999.368653385724</v>
+        <v>54009.73670702236</v>
       </c>
       <c r="S7">
-        <v>0.03453777560091932</v>
+        <v>0.03066276359534636</v>
       </c>
       <c r="T7">
-        <v>0.03453777560091932</v>
+        <v>0.03066276359534635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H8">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I8">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J8">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>62.6648276750471</v>
+        <v>67.227361</v>
       </c>
       <c r="N8">
-        <v>62.6648276750471</v>
+        <v>201.682083</v>
       </c>
       <c r="O8">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="P8">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="Q8">
-        <v>8837.206833652424</v>
+        <v>9482.641052113941</v>
       </c>
       <c r="R8">
-        <v>8837.206833652424</v>
+        <v>85343.76946902546</v>
       </c>
       <c r="S8">
-        <v>0.05087493104584424</v>
+        <v>0.04845192713602358</v>
       </c>
       <c r="T8">
-        <v>0.05087493104584424</v>
+        <v>0.04845192713602357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>141.023396401541</v>
+        <v>141.053299</v>
       </c>
       <c r="H9">
-        <v>141.023396401541</v>
+        <v>423.159897</v>
       </c>
       <c r="I9">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="J9">
-        <v>0.2313966355975982</v>
+        <v>0.2132662656560029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.736944263174</v>
+        <v>32.73617033333333</v>
       </c>
       <c r="N9">
-        <v>26.736944263174</v>
+        <v>98.208511</v>
       </c>
       <c r="O9">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="P9">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="Q9">
-        <v>3770.534689391494</v>
+        <v>4617.544822142597</v>
       </c>
       <c r="R9">
-        <v>3770.534689391494</v>
+        <v>41557.90339928336</v>
       </c>
       <c r="S9">
-        <v>0.02170659756409417</v>
+        <v>0.02359352674431358</v>
       </c>
       <c r="T9">
-        <v>0.02170659756409417</v>
+        <v>0.02359352674431357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H10">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I10">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J10">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.077702419824</v>
+        <v>153.400004</v>
       </c>
       <c r="N10">
-        <v>153.077702419824</v>
+        <v>460.200012</v>
       </c>
       <c r="O10">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="P10">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="Q10">
-        <v>43520.75155706631</v>
+        <v>49423.64728948551</v>
       </c>
       <c r="R10">
-        <v>43520.75155706631</v>
+        <v>444812.8256053696</v>
       </c>
       <c r="S10">
-        <v>0.2505446886337017</v>
+        <v>0.2525320682398754</v>
       </c>
       <c r="T10">
-        <v>0.2505446886337017</v>
+        <v>0.2525320682398753</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H11">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I11">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J11">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.541654835085</v>
+        <v>42.544782</v>
       </c>
       <c r="N11">
-        <v>42.541654835085</v>
+        <v>127.634346</v>
       </c>
       <c r="O11">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="P11">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="Q11">
-        <v>12094.80389133692</v>
+        <v>13707.420109168</v>
       </c>
       <c r="R11">
-        <v>12094.80389133692</v>
+        <v>123366.780982512</v>
       </c>
       <c r="S11">
-        <v>0.0696285970858579</v>
+        <v>0.07003860176740688</v>
       </c>
       <c r="T11">
-        <v>0.0696285970858579</v>
+        <v>0.07003860176740687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H12">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I12">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J12">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>62.6648276750471</v>
+        <v>67.227361</v>
       </c>
       <c r="N12">
-        <v>62.6648276750471</v>
+        <v>201.682083</v>
       </c>
       <c r="O12">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="P12">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="Q12">
-        <v>17815.92193703396</v>
+        <v>21659.851966281</v>
       </c>
       <c r="R12">
-        <v>17815.92193703396</v>
+        <v>194938.667696529</v>
       </c>
       <c r="S12">
-        <v>0.1025645112902871</v>
+        <v>0.1106718648823421</v>
       </c>
       <c r="T12">
-        <v>0.1025645112902871</v>
+        <v>0.1106718648823421</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>284.304969757831</v>
+        <v>322.1880443333333</v>
       </c>
       <c r="H13">
-        <v>284.304969757831</v>
+        <v>966.564133</v>
       </c>
       <c r="I13">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973437</v>
       </c>
       <c r="J13">
-        <v>0.4664985751606824</v>
+        <v>0.4871338815973436</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.736944263174</v>
+        <v>32.73617033333333</v>
       </c>
       <c r="N13">
-        <v>26.736944263174</v>
+        <v>98.208511</v>
       </c>
       <c r="O13">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="P13">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="Q13">
-        <v>7601.446130158496</v>
+        <v>10547.20269865955</v>
       </c>
       <c r="R13">
-        <v>7601.446130158496</v>
+        <v>94924.82428793596</v>
       </c>
       <c r="S13">
-        <v>0.04376077815083572</v>
+        <v>0.05389134670771924</v>
       </c>
       <c r="T13">
-        <v>0.04376077815083572</v>
+        <v>0.05389134670771923</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H14">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I14">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J14">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.077702419824</v>
+        <v>153.400004</v>
       </c>
       <c r="N14">
-        <v>153.077702419824</v>
+        <v>460.200012</v>
       </c>
       <c r="O14">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="P14">
-        <v>0.5370749279296366</v>
+        <v>0.5184038265041354</v>
       </c>
       <c r="Q14">
-        <v>2752.875945422007</v>
+        <v>3768.301420327457</v>
       </c>
       <c r="R14">
-        <v>2752.875945422007</v>
+        <v>33914.71278294711</v>
       </c>
       <c r="S14">
-        <v>0.01584803621069307</v>
+        <v>0.01925428420635807</v>
       </c>
       <c r="T14">
-        <v>0.01584803621069307</v>
+        <v>0.01925428420635807</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H15">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I15">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J15">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.541654835085</v>
+        <v>42.544782</v>
       </c>
       <c r="N15">
-        <v>42.541654835085</v>
+        <v>127.634346</v>
       </c>
       <c r="O15">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="P15">
-        <v>0.1492578987232164</v>
+        <v>0.1437769048988047</v>
       </c>
       <c r="Q15">
-        <v>765.0487067852999</v>
+        <v>1045.120979515242</v>
       </c>
       <c r="R15">
-        <v>765.0487067852999</v>
+        <v>9406.088815637177</v>
       </c>
       <c r="S15">
-        <v>0.004404310200842955</v>
+        <v>0.005340086719460236</v>
       </c>
       <c r="T15">
-        <v>0.004404310200842955</v>
+        <v>0.005340086719460235</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H16">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I16">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J16">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>62.6648276750471</v>
+        <v>67.227361</v>
       </c>
       <c r="N16">
-        <v>62.6648276750471</v>
+        <v>201.682083</v>
       </c>
       <c r="O16">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="P16">
-        <v>0.2198602884370213</v>
+        <v>0.227189832329958</v>
       </c>
       <c r="Q16">
-        <v>1126.934190960996</v>
+        <v>1651.453411573357</v>
       </c>
       <c r="R16">
-        <v>1126.934190960996</v>
+        <v>14863.08070416022</v>
       </c>
       <c r="S16">
-        <v>0.006487649359978745</v>
+        <v>0.008438166110722086</v>
       </c>
       <c r="T16">
-        <v>0.006487649359978745</v>
+        <v>0.008438166110722085</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.9835201463378</v>
+        <v>24.56519766666666</v>
       </c>
       <c r="H17">
-        <v>17.9835201463378</v>
+        <v>73.69559299999999</v>
       </c>
       <c r="I17">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="J17">
-        <v>0.02950805443811252</v>
+        <v>0.03714147778614916</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.736944263174</v>
+        <v>32.73617033333333</v>
       </c>
       <c r="N17">
-        <v>26.736944263174</v>
+        <v>98.208511</v>
       </c>
       <c r="O17">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="P17">
-        <v>0.09380688491012562</v>
+        <v>0.1106294362671018</v>
       </c>
       <c r="Q17">
-        <v>480.8243758083005</v>
+        <v>804.1704950880024</v>
       </c>
       <c r="R17">
-        <v>480.8243758083005</v>
+        <v>7237.534455792022</v>
       </c>
       <c r="S17">
-        <v>0.002768058666597743</v>
+        <v>0.004108940749608766</v>
       </c>
       <c r="T17">
-        <v>0.002768058666597743</v>
+        <v>0.004108940749608765</v>
       </c>
     </row>
   </sheetData>
